--- a/Reports/MarketBeatRank/TanzyToInvest/PSEC.xlsx
+++ b/Reports/MarketBeatRank/TanzyToInvest/PSEC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="33">
   <si>
     <t>Jun_10</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Jun_13</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
   </si>
 </sst>
 </file>
@@ -155,14 +161,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -176,6 +190,12 @@
       <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -187,6 +207,12 @@
       <c r="C3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -198,6 +224,12 @@
       <c r="C4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -209,6 +241,12 @@
       <c r="C5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -220,6 +258,12 @@
       <c r="C6" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -231,6 +275,12 @@
       <c r="C7" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -242,6 +292,12 @@
       <c r="C8" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -253,6 +309,12 @@
       <c r="C9" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -264,6 +326,12 @@
       <c r="C10" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -275,6 +343,12 @@
       <c r="C11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -286,6 +360,12 @@
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -297,6 +377,12 @@
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -308,6 +394,12 @@
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -319,6 +411,12 @@
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -330,6 +428,12 @@
       <c r="C16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -341,6 +445,12 @@
       <c r="C17" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -352,6 +462,12 @@
       <c r="C18" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -363,6 +479,12 @@
       <c r="C19" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -374,6 +496,12 @@
       <c r="C20" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -385,6 +513,12 @@
       <c r="C21" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -396,6 +530,12 @@
       <c r="C22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -407,6 +547,12 @@
       <c r="C23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -418,6 +564,12 @@
       <c r="C24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -429,6 +581,12 @@
       <c r="C25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -440,6 +598,12 @@
       <c r="C26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -449,6 +613,12 @@
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>28</v>
       </c>
     </row>
